--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2777381.273848809</v>
+        <v>-2780309.291915182</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663199</v>
+        <v>116.8405921356977</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.396723986041382</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -786,22 +786,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>15.40229248514491</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.21594625443444</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>325.5823753787691</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>95.92525437573281</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.62007141147429</v>
+        <v>325.5823753787723</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>47.07051318005082</v>
       </c>
       <c r="S5" t="n">
-        <v>147.8888157490756</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>211.3524786953563</v>
       </c>
       <c r="U5" t="n">
         <v>251.1310396195436</v>
       </c>
       <c r="V5" t="n">
-        <v>193.8393590905839</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>325.5823753787723</v>
       </c>
       <c r="X5" t="n">
-        <v>325.5823753787691</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>56.56171562291475</v>
       </c>
       <c r="S6" t="n">
-        <v>34.79273139416188</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>194.379249217185</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>137.9917135911175</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>196.4355796394545</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>196.4355796394584</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>145.7818465999107</v>
+        <v>265.6962952122121</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.34312009993198</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>88.29136708609205</v>
       </c>
     </row>
     <row r="10">
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>77.84303991612562</v>
+        <v>246.4412936084452</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428213</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>108.2950343703271</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1850,16 +1850,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428213</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>59.66990246485226</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2090,13 +2090,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833859</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>126.464366564012</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2491,10 +2491,10 @@
         <v>141.2394908002292</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541838</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
@@ -2530,7 +2530,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2722,16 +2722,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541838</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652586</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2950,7 +2950,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
         <v>124.3308255261727</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541836</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3187,10 +3187,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808158</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3560,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,10 +3661,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3673,13 +3673,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541838</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972039</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002294</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652583</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,10 +3949,10 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3986,7 +3986,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4040,7 +4040,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.46338433294335</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C2" t="n">
-        <v>21.46338433294335</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D2" t="n">
-        <v>21.46338433294335</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E2" t="n">
-        <v>21.46338433294335</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F2" t="n">
-        <v>21.46338433294335</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G2" t="n">
-        <v>21.46338433294335</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>21.46338433294335</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
         <v>21.03371160678478</v>
@@ -4340,40 +4340,40 @@
         <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>672.2420264262255</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823975</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="T2" t="n">
-        <v>400.3029543659128</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="U2" t="n">
-        <v>400.3029543659128</v>
+        <v>511.8624171433436</v>
       </c>
       <c r="V2" t="n">
-        <v>210.8831693494281</v>
+        <v>322.4426321268588</v>
       </c>
       <c r="W2" t="n">
-        <v>210.8831693494281</v>
+        <v>322.4426321268588</v>
       </c>
       <c r="X2" t="n">
-        <v>210.8831693494281</v>
+        <v>133.022847110374</v>
       </c>
       <c r="Y2" t="n">
-        <v>210.8831693494281</v>
+        <v>133.022847110374</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
@@ -4419,40 +4419,40 @@
         <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>598.8192732198761</v>
       </c>
       <c r="T3" t="n">
-        <v>560.6825636487947</v>
+        <v>409.3994882033913</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487947</v>
+        <v>219.9797031869065</v>
       </c>
       <c r="V3" t="n">
-        <v>371.26277863231</v>
+        <v>219.9797031869065</v>
       </c>
       <c r="W3" t="n">
-        <v>181.8429936158252</v>
+        <v>30.55991817042167</v>
       </c>
       <c r="X3" t="n">
-        <v>181.8429936158252</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y3" t="n">
-        <v>181.8429936158252</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4462,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
         <v>42.98993985170716</v>
@@ -4507,31 +4507,31 @@
         <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="R4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="S4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45.73963765978206</v>
+        <v>458.7573733598135</v>
       </c>
       <c r="C5" t="n">
-        <v>45.73963765978206</v>
+        <v>458.7573733598135</v>
       </c>
       <c r="D5" t="n">
-        <v>45.73963765978206</v>
+        <v>458.7573733598135</v>
       </c>
       <c r="E5" t="n">
-        <v>45.73963765978206</v>
+        <v>361.8631770206894</v>
       </c>
       <c r="F5" t="n">
-        <v>38.79413691057859</v>
+        <v>354.917676271486</v>
       </c>
       <c r="G5" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="H5" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="I5" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="J5" t="n">
-        <v>72.22219744230435</v>
+        <v>72.22219744230529</v>
       </c>
       <c r="K5" t="n">
-        <v>192.1659814074764</v>
+        <v>192.1659814074787</v>
       </c>
       <c r="L5" t="n">
-        <v>377.8686134291006</v>
+        <v>377.868613429105</v>
       </c>
       <c r="M5" t="n">
-        <v>616.1680100637798</v>
+        <v>616.168010063786</v>
       </c>
       <c r="N5" t="n">
-        <v>862.93714844919</v>
+        <v>862.9371484491983</v>
       </c>
       <c r="O5" t="n">
-        <v>1082.618987030161</v>
+        <v>1082.618987030172</v>
       </c>
       <c r="P5" t="n">
-        <v>1235.611352881102</v>
+        <v>1235.611352881114</v>
       </c>
       <c r="Q5" t="n">
-        <v>1302.329501515076</v>
+        <v>1302.329501515089</v>
       </c>
       <c r="R5" t="n">
-        <v>1302.329501515076</v>
+        <v>1254.783528605947</v>
       </c>
       <c r="S5" t="n">
-        <v>1152.946859344293</v>
+        <v>1254.783528605947</v>
       </c>
       <c r="T5" t="n">
-        <v>1152.946859344293</v>
+        <v>1041.296176388415</v>
       </c>
       <c r="U5" t="n">
-        <v>899.2791425568752</v>
+        <v>787.6284596009976</v>
       </c>
       <c r="V5" t="n">
-        <v>703.4818101421439</v>
+        <v>787.6284596009976</v>
       </c>
       <c r="W5" t="n">
-        <v>703.4818101421439</v>
+        <v>458.7573733598135</v>
       </c>
       <c r="X5" t="n">
-        <v>374.610723900963</v>
+        <v>458.7573733598135</v>
       </c>
       <c r="Y5" t="n">
-        <v>374.610723900963</v>
+        <v>458.7573733598135</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="C6" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="D6" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="E6" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="F6" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="G6" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="H6" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="I6" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="J6" t="n">
-        <v>34.73061851331844</v>
+        <v>34.73061851331921</v>
       </c>
       <c r="K6" t="n">
-        <v>127.7278310874252</v>
+        <v>127.7278310874268</v>
       </c>
       <c r="L6" t="n">
-        <v>299.0966011173154</v>
+        <v>299.0966011173183</v>
       </c>
       <c r="M6" t="n">
-        <v>518.4327409717712</v>
+        <v>518.4327409717755</v>
       </c>
       <c r="N6" t="n">
-        <v>757.9827007088683</v>
+        <v>757.9827007088741</v>
       </c>
       <c r="O6" t="n">
-        <v>954.9043187862565</v>
+        <v>954.9043187862635</v>
       </c>
       <c r="P6" t="n">
-        <v>1093.618211966602</v>
+        <v>1093.61821196661</v>
       </c>
       <c r="Q6" t="n">
-        <v>1136.425579636636</v>
+        <v>1136.425579636645</v>
       </c>
       <c r="R6" t="n">
-        <v>1136.425579636636</v>
+        <v>1079.292533552893</v>
       </c>
       <c r="S6" t="n">
-        <v>1101.28140651122</v>
+        <v>1079.292533552893</v>
       </c>
       <c r="T6" t="n">
-        <v>904.9387305342657</v>
+        <v>882.949857575938</v>
       </c>
       <c r="U6" t="n">
-        <v>676.8104972325309</v>
+        <v>654.8216242742033</v>
       </c>
       <c r="V6" t="n">
-        <v>441.6583890007882</v>
+        <v>419.6695160424605</v>
       </c>
       <c r="W6" t="n">
-        <v>441.6583890007882</v>
+        <v>165.4321593142589</v>
       </c>
       <c r="X6" t="n">
-        <v>233.8068887952554</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="Y6" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="C7" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="D7" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="E7" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="F7" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="G7" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="H7" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="I7" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="J7" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="K7" t="n">
-        <v>36.73297237734466</v>
+        <v>36.73297237734548</v>
       </c>
       <c r="L7" t="n">
-        <v>80.31366029109955</v>
+        <v>80.31366029110109</v>
       </c>
       <c r="M7" t="n">
-        <v>129.5216682469973</v>
+        <v>129.5216682469995</v>
       </c>
       <c r="N7" t="n">
-        <v>185.4171456649575</v>
+        <v>185.4171456649605</v>
       </c>
       <c r="O7" t="n">
-        <v>216.7325770880054</v>
+        <v>216.732577088009</v>
       </c>
       <c r="P7" t="n">
-        <v>224.466367443892</v>
+        <v>224.4663674438962</v>
       </c>
       <c r="Q7" t="n">
-        <v>224.466367443892</v>
+        <v>224.4663674438962</v>
       </c>
       <c r="R7" t="n">
-        <v>224.466367443892</v>
+        <v>224.4663674438962</v>
       </c>
       <c r="S7" t="n">
-        <v>224.466367443892</v>
+        <v>224.4663674438962</v>
       </c>
       <c r="T7" t="n">
-        <v>224.466367443892</v>
+        <v>224.4663674438962</v>
       </c>
       <c r="U7" t="n">
-        <v>26.04659003030153</v>
+        <v>224.4663674438962</v>
       </c>
       <c r="V7" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="W7" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="X7" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
       <c r="Y7" t="n">
-        <v>26.04659003030153</v>
+        <v>26.04659003030179</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1061.515787985911</v>
+        <v>1171.944675321241</v>
       </c>
       <c r="C8" t="n">
-        <v>692.5532710454991</v>
+        <v>1171.944675321241</v>
       </c>
       <c r="D8" t="n">
-        <v>692.5532710454991</v>
+        <v>813.6789767144903</v>
       </c>
       <c r="E8" t="n">
-        <v>692.5532710454991</v>
+        <v>813.6789767144903</v>
       </c>
       <c r="F8" t="n">
-        <v>685.6077702962956</v>
+        <v>806.7334759652869</v>
       </c>
       <c r="G8" t="n">
-        <v>269.5767249997028</v>
+        <v>390.7024306686941</v>
       </c>
       <c r="H8" t="n">
         <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711882</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>2036.325171642784</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U8" t="n">
-        <v>1782.718007305293</v>
+        <v>1914.852662567167</v>
       </c>
       <c r="V8" t="n">
-        <v>1451.655119961722</v>
+        <v>1914.852662567167</v>
       </c>
       <c r="W8" t="n">
-        <v>1451.655119961722</v>
+        <v>1562.084007297052</v>
       </c>
       <c r="X8" t="n">
-        <v>1451.655119961722</v>
+        <v>1562.084007297052</v>
       </c>
       <c r="Y8" t="n">
-        <v>1061.515787985911</v>
+        <v>1171.944675321241</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>180.2451903229772</v>
+        <v>217.8222258192202</v>
       </c>
       <c r="C9" t="n">
-        <v>180.2451903229772</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="D9" t="n">
-        <v>180.2451903229772</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="E9" t="n">
-        <v>180.2451903229772</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F9" t="n">
-        <v>180.2451903229772</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1734.238298972668</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>1595.273638474386</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.563316948358</v>
+        <v>1400.563316948362</v>
       </c>
       <c r="U9" t="n">
-        <v>1172.461727081622</v>
+        <v>1172.461727081626</v>
       </c>
       <c r="V9" t="n">
-        <v>937.3096188498796</v>
+        <v>937.3096188498832</v>
       </c>
       <c r="W9" t="n">
-        <v>683.072262121678</v>
+        <v>683.0722621216817</v>
       </c>
       <c r="X9" t="n">
-        <v>475.2207619161452</v>
+        <v>475.2207619161488</v>
       </c>
       <c r="Y9" t="n">
-        <v>267.4604631511913</v>
+        <v>386.0375628392882</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="C10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="D10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="R10" t="n">
-        <v>411.1248508126813</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="S10" t="n">
-        <v>411.1248508126813</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="T10" t="n">
-        <v>411.1248508126813</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="U10" t="n">
-        <v>121.9985297867048</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="V10" t="n">
-        <v>121.9985297867048</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="W10" t="n">
-        <v>43.36919653809306</v>
+        <v>271.3587474361105</v>
       </c>
       <c r="X10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5042,31 +5042,31 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5179,13 +5179,13 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797189</v>
@@ -5264,43 +5264,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,19 +5349,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
         <v>680.0291294438171</v>
@@ -5416,22 +5416,22 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5492,31 +5492,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192542</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,31 +5531,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,22 +5586,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
         <v>1307.627092998424</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2386.690454827884</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2386.690454827884</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2167.088989850826</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1878.013763195024</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1623.329274989137</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,22 +5823,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998291</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998291</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998291</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +5999,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K25" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6181,7 +6181,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W25" t="n">
         <v>1483.798285518751</v>
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6409,7 +6409,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656814</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6637,34 +6637,34 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,40 +6710,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,22 +6771,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6929,46 +6929,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,19 +7090,19 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7166,46 +7166,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,67 +7306,67 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,22 +7482,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,58 +7543,58 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7640,52 +7640,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
         <v>3094.515198591809</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,22 +7719,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580113</v>
@@ -7801,19 +7801,19 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971607</v>
+        <v>265.8932495277829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,10 +22556,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>192.6542767931781</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22632,7 +22632,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22717,10 +22717,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22729,7 +22729,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>51.88638342057211</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393022</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>40.32043864788525</v>
+        <v>45.44677382459263</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393022</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.70534424526943</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393025</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>92.12028678808279</v>
       </c>
     </row>
     <row r="23">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1111815.342845297</v>
+        <v>1111815.342845298</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>152821.0045718481</v>
+        <v>152821.0045718515</v>
       </c>
       <c r="D3" t="n">
-        <v>226894.91968881</v>
+        <v>226894.919688808</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742654</v>
+        <v>601443.2075742643</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
-        <v>35531.39946866159</v>
+        <v>35531.39946866244</v>
       </c>
       <c r="L3" t="n">
-        <v>54802.44754579332</v>
+        <v>54802.44754579279</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515981</v>
+        <v>157146.3805515979</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363172</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>172534.4359623089</v>
+        <v>172534.435962309</v>
       </c>
       <c r="C4" t="n">
-        <v>237903.8570859606</v>
+        <v>237903.8570859596</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186731</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186731</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
         <v>22817.55530496082</v>
       </c>
       <c r="J4" t="n">
-        <v>22817.55530496081</v>
+        <v>22817.55530496082</v>
       </c>
       <c r="K4" t="n">
         <v>22817.55530496082</v>
       </c>
       <c r="L4" t="n">
-        <v>22817.55530496083</v>
+        <v>22817.55530496088</v>
       </c>
       <c r="M4" t="n">
         <v>22817.55530496083</v>
       </c>
       <c r="N4" t="n">
-        <v>22817.55530496082</v>
+        <v>22817.55530496087</v>
       </c>
       <c r="O4" t="n">
-        <v>22817.55530496082</v>
+        <v>22817.55530496083</v>
       </c>
       <c r="P4" t="n">
         <v>22817.55530496083</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>67970.43603665558</v>
+        <v>67970.43603665582</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-820877.1388947678</v>
+        <v>-821341.4356867924</v>
       </c>
       <c r="C6" t="n">
-        <v>-458695.2976944642</v>
+        <v>-458695.297694467</v>
       </c>
       <c r="D6" t="n">
-        <v>-486296.99163358</v>
+        <v>-486296.9916335777</v>
       </c>
       <c r="E6" t="n">
-        <v>-717392.4334400399</v>
+        <v>-717427.1713654744</v>
       </c>
       <c r="F6" t="n">
-        <v>-115949.2258657744</v>
+        <v>-115983.9637912102</v>
       </c>
       <c r="G6" t="n">
-        <v>-115949.2258657744</v>
+        <v>-115983.9637912102</v>
       </c>
       <c r="H6" t="n">
-        <v>-115949.2258657744</v>
+        <v>-115983.9637912102</v>
       </c>
       <c r="I6" t="n">
-        <v>-145409.3891525081</v>
+        <v>-145409.389152508</v>
       </c>
       <c r="J6" t="n">
         <v>-175046.6158874208</v>
       </c>
       <c r="K6" t="n">
-        <v>-161513.0706275378</v>
+        <v>-161513.0706275387</v>
       </c>
       <c r="L6" t="n">
-        <v>-180784.1187046696</v>
+        <v>-180784.1187046691</v>
       </c>
       <c r="M6" t="n">
-        <v>-283128.0517104743</v>
+        <v>-283128.0517104741</v>
       </c>
       <c r="N6" t="n">
         <v>-145409.389152508</v>
@@ -26561,7 +26561,7 @@
         <v>-125981.6711588762</v>
       </c>
       <c r="P6" t="n">
-        <v>-125981.6711588763</v>
+        <v>-125981.6711588762</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>24.28464749203969</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26738,10 +26738,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>667.3131932856156</v>
+        <v>667.3131932856182</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>325.5823753787691</v>
+        <v>325.5823753787723</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203965</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>118.843252372711</v>
+        <v>118.8432523727137</v>
       </c>
       <c r="D3" t="n">
-        <v>186.3974712520685</v>
+        <v>186.3974712520669</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039899</v>
+        <v>514.2648358039888</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>138.0567882124492</v>
+        <v>138.0567882124524</v>
       </c>
       <c r="D4" t="n">
-        <v>216.5325813473941</v>
+        <v>216.532581347392</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734843</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>138.0567882124492</v>
+        <v>138.0567882124524</v>
       </c>
       <c r="L4" t="n">
-        <v>216.5325813473941</v>
+        <v>216.532581347392</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734845</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>138.0567882124492</v>
+        <v>138.0567882124524</v>
       </c>
       <c r="L4" t="n">
-        <v>216.5325813473941</v>
+        <v>216.532581347392</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734854</v>
+        <v>630.5933313734843</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>220.4435564368799</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>119.0745931339333</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988691</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.360646473772903</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27464,7 +27464,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27506,22 +27506,22 @@
         <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>7.88401062568137</v>
+        <v>7.884010625681299</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377098</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>190.3706927183326</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
@@ -27561,7 +27561,7 @@
         <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>16.47009429716282</v>
+        <v>16.47009429716283</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>200.2512599032559</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57.15146628471149</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>286.0051156965289</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>87.03769603270194</v>
       </c>
       <c r="H5" t="n">
         <v>312.0009478816513</v>
       </c>
       <c r="I5" t="n">
-        <v>107.0524046090242</v>
+        <v>107.0524046090238</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>47.07051318005148</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>147.8888157490754</v>
       </c>
       <c r="T5" t="n">
-        <v>211.3524786953564</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>133.912899379551</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>23.65859333864069</v>
       </c>
       <c r="X5" t="n">
-        <v>44.14872529969995</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27710,10 +27710,10 @@
         <v>135.9081642568982</v>
       </c>
       <c r="H6" t="n">
-        <v>98.37295695711038</v>
+        <v>98.37295695711032</v>
       </c>
       <c r="I6" t="n">
-        <v>50.10343125196147</v>
+        <v>50.10343125196128</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>56.5617156229151</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>110.2293890156705</v>
+        <v>145.0221204098322</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>67.78127161235994</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27789,13 +27789,13 @@
         <v>166.7876276984355</v>
       </c>
       <c r="H7" t="n">
-        <v>151.5282822937784</v>
+        <v>151.5282822937783</v>
       </c>
       <c r="I7" t="n">
-        <v>119.2624086421957</v>
+        <v>119.2624086421956</v>
       </c>
       <c r="J7" t="n">
-        <v>41.91845907575296</v>
+        <v>41.91845907575264</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>50.74070944331788</v>
+        <v>50.74070944331748</v>
       </c>
       <c r="R7" t="n">
-        <v>123.1863249183063</v>
+        <v>123.1863249183061</v>
       </c>
       <c r="S7" t="n">
-        <v>203.0454604709309</v>
+        <v>203.0454604709308</v>
       </c>
       <c r="T7" t="n">
-        <v>222.8039959718186</v>
+        <v>222.8039959718185</v>
       </c>
       <c r="U7" t="n">
-        <v>89.81781235376235</v>
+        <v>286.2533919932169</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>55.70206368436956</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>158.5449581562723</v>
+        <v>38.6305095439709</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.19006354993536</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>117.3913286912123</v>
       </c>
     </row>
     <row r="10">
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>208.6799584204654</v>
+        <v>40.08170472814575</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30280,7 +30280,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.682666103660764</v>
+        <v>2.682666103660775</v>
       </c>
       <c r="H5" t="n">
-        <v>27.47385423411581</v>
+        <v>27.47385423411592</v>
       </c>
       <c r="I5" t="n">
-        <v>103.4234849613817</v>
+        <v>103.4234849613821</v>
       </c>
       <c r="J5" t="n">
-        <v>227.687932215578</v>
+        <v>227.6879322155789</v>
       </c>
       <c r="K5" t="n">
-        <v>341.2451883835382</v>
+        <v>341.2451883835396</v>
       </c>
       <c r="L5" t="n">
-        <v>423.3448311534464</v>
+        <v>423.3448311534481</v>
       </c>
       <c r="M5" t="n">
-        <v>471.0526944744235</v>
+        <v>471.0526944744254</v>
       </c>
       <c r="N5" t="n">
-        <v>478.6748195414497</v>
+        <v>478.6748195414516</v>
       </c>
       <c r="O5" t="n">
-        <v>451.999058473173</v>
+        <v>451.9990584731747</v>
       </c>
       <c r="P5" t="n">
-        <v>385.7707390390478</v>
+        <v>385.7707390390493</v>
       </c>
       <c r="Q5" t="n">
-        <v>289.6977592016966</v>
+        <v>289.6977592016977</v>
       </c>
       <c r="R5" t="n">
-        <v>168.5150246340806</v>
+        <v>168.5150246340813</v>
       </c>
       <c r="S5" t="n">
-        <v>61.13125383716973</v>
+        <v>61.13125383716996</v>
       </c>
       <c r="T5" t="n">
-        <v>11.743370868775</v>
+        <v>11.74337086877505</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2146132882928611</v>
+        <v>0.2146132882928619</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.435352906312456</v>
+        <v>1.435352906312462</v>
       </c>
       <c r="H6" t="n">
-        <v>13.86248727938609</v>
+        <v>13.86248727938615</v>
       </c>
       <c r="I6" t="n">
-        <v>49.41894874803852</v>
+        <v>49.41894874803872</v>
       </c>
       <c r="J6" t="n">
-        <v>135.609372609108</v>
+        <v>135.6093726091085</v>
       </c>
       <c r="K6" t="n">
-        <v>231.7780173320426</v>
+        <v>231.7780173320435</v>
       </c>
       <c r="L6" t="n">
-        <v>311.654147486834</v>
+        <v>311.6541474868353</v>
       </c>
       <c r="M6" t="n">
-        <v>363.6856903406605</v>
+        <v>363.6856903406619</v>
       </c>
       <c r="N6" t="n">
-        <v>373.3113683834313</v>
+        <v>373.3113683834328</v>
       </c>
       <c r="O6" t="n">
-        <v>341.5069697751395</v>
+        <v>341.5069697751409</v>
       </c>
       <c r="P6" t="n">
-        <v>274.0894510308409</v>
+        <v>274.089451030842</v>
       </c>
       <c r="Q6" t="n">
-        <v>183.2215394092883</v>
+        <v>183.221539409289</v>
       </c>
       <c r="R6" t="n">
-        <v>89.11778834104885</v>
+        <v>89.11778834104921</v>
       </c>
       <c r="S6" t="n">
-        <v>26.66105069400547</v>
+        <v>26.66105069400558</v>
       </c>
       <c r="T6" t="n">
-        <v>5.785479477636609</v>
+        <v>5.785479477636631</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09443111225739848</v>
+        <v>0.09443111225739885</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.203351660023241</v>
+        <v>1.203351660023246</v>
       </c>
       <c r="H7" t="n">
-        <v>10.69889021366119</v>
+        <v>10.69889021366123</v>
       </c>
       <c r="I7" t="n">
-        <v>36.18806628506258</v>
+        <v>36.18806628506272</v>
       </c>
       <c r="J7" t="n">
-        <v>85.07696236364315</v>
+        <v>85.07696236364347</v>
       </c>
       <c r="K7" t="n">
-        <v>139.8075837736093</v>
+        <v>139.8075837736098</v>
       </c>
       <c r="L7" t="n">
-        <v>178.905573163819</v>
+        <v>178.9055731638197</v>
       </c>
       <c r="M7" t="n">
-        <v>188.6308424889159</v>
+        <v>188.6308424889166</v>
       </c>
       <c r="N7" t="n">
-        <v>184.145622665193</v>
+        <v>184.1456226651937</v>
       </c>
       <c r="O7" t="n">
-        <v>170.0882873640124</v>
+        <v>170.088287364013</v>
       </c>
       <c r="P7" t="n">
-        <v>145.5399134995381</v>
+        <v>145.5399134995387</v>
       </c>
       <c r="Q7" t="n">
-        <v>100.764292186128</v>
+        <v>100.7642921861284</v>
       </c>
       <c r="R7" t="n">
-        <v>54.10706645886317</v>
+        <v>54.10706645886339</v>
       </c>
       <c r="S7" t="n">
-        <v>20.97113756604139</v>
+        <v>20.97113756604147</v>
       </c>
       <c r="T7" t="n">
-        <v>5.141593456462938</v>
+        <v>5.141593456462958</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06563736327399505</v>
+        <v>0.0656373632739953</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32084,7 +32084,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622658</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32321,31 +32321,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622658</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948329</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N24" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33269,31 +33269,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622658</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33506,31 +33506,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622658</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33743,31 +33743,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622658</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622658</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34454,31 +34454,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>754.0002396832328</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>46.64202768889172</v>
+        <v>46.6420276888926</v>
       </c>
       <c r="K5" t="n">
-        <v>121.1553373385577</v>
+        <v>121.155337338559</v>
       </c>
       <c r="L5" t="n">
-        <v>187.5784161834592</v>
+        <v>187.5784161834608</v>
       </c>
       <c r="M5" t="n">
-        <v>240.7064612471508</v>
+        <v>240.7064612471526</v>
       </c>
       <c r="N5" t="n">
-        <v>249.2617559448588</v>
+        <v>249.2617559448607</v>
       </c>
       <c r="O5" t="n">
-        <v>221.9008470514862</v>
+        <v>221.900847051488</v>
       </c>
       <c r="P5" t="n">
-        <v>154.5377432837782</v>
+        <v>154.5377432837797</v>
       </c>
       <c r="Q5" t="n">
-        <v>67.39206932724707</v>
+        <v>67.39206932724821</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>8.771745942441328</v>
+        <v>8.771745942441839</v>
       </c>
       <c r="K6" t="n">
-        <v>93.93657835768357</v>
+        <v>93.93657835768448</v>
       </c>
       <c r="L6" t="n">
-        <v>173.0997677069598</v>
+        <v>173.0997677069611</v>
       </c>
       <c r="M6" t="n">
-        <v>221.5516564186422</v>
+        <v>221.5516564186436</v>
       </c>
       <c r="N6" t="n">
-        <v>241.969656300098</v>
+        <v>241.9696563000995</v>
       </c>
       <c r="O6" t="n">
-        <v>198.9107253306951</v>
+        <v>198.9107253306964</v>
       </c>
       <c r="P6" t="n">
-        <v>140.1150436165107</v>
+        <v>140.1150436165117</v>
       </c>
       <c r="Q6" t="n">
-        <v>43.23976532326677</v>
+        <v>43.23976532326751</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>10.79432560307387</v>
+        <v>10.79432560307444</v>
       </c>
       <c r="L7" t="n">
-        <v>44.0208968825807</v>
+        <v>44.02089688258141</v>
       </c>
       <c r="M7" t="n">
-        <v>49.70505854131082</v>
+        <v>49.70505854131156</v>
       </c>
       <c r="N7" t="n">
-        <v>56.46007819995984</v>
+        <v>56.46007819996055</v>
       </c>
       <c r="O7" t="n">
-        <v>31.63174891216957</v>
+        <v>31.63174891217025</v>
       </c>
       <c r="P7" t="n">
-        <v>7.811909450390516</v>
+        <v>7.811909450391084</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402476</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402476</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281453</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N24" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,13 +36516,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M25" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N25" t="n">
         <v>445.9107804819471</v>
@@ -36534,7 +36534,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402476</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402476</v>
+        <v>592.1338044402482</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402476</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402476</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>622.6585275998996</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
